--- a/data/semantic categories.xlsx
+++ b/data/semantic categories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>personal description</t>
   </si>
   <si>
-    <t>occuptaion</t>
-  </si>
-  <si>
     <t>holiday</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>fangirl</t>
   </si>
   <si>
-    <t>toast?</t>
-  </si>
-  <si>
     <t>hipster</t>
   </si>
   <si>
@@ -196,13 +190,25 @@
   </si>
   <si>
     <t>tracts</t>
+  </si>
+  <si>
+    <t>pickpockets</t>
+  </si>
+  <si>
+    <t>baskets</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>clothing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +231,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,10 +272,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,8 +293,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -602,211 +652,216 @@
     <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="2:12">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="L4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="J9" t="s">
         <v>45</v>
       </c>
-      <c r="L7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="10" spans="1:12">
+      <c r="J10" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="J10" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/semantic categories.xlsx
+++ b/data/semantic categories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>personal description</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>clothing</t>
+  </si>
+  <si>
+    <t>Netflix</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -850,6 +853,9 @@
       </c>
     </row>
     <row r="9" spans="1:12">
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
       <c r="J9" t="s">
         <v>45</v>
       </c>

--- a/data/semantic categories.xlsx
+++ b/data/semantic categories.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="299">
   <si>
     <t>personal description</t>
   </si>
@@ -205,6 +205,717 @@
   </si>
   <si>
     <t>Netflix</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>fist-fucking</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>debfriefign</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>shots</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>sexy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>iPad</t>
+  </si>
+  <si>
+    <t>quiz</t>
+  </si>
+  <si>
+    <t>OMG</t>
+  </si>
+  <si>
+    <t>shampoing</t>
+  </si>
+  <si>
+    <t>big mac</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>nuggets</t>
+  </si>
+  <si>
+    <t>steak</t>
+  </si>
+  <si>
+    <t>burger</t>
+  </si>
+  <si>
+    <t>toaster</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>filet-o-fish</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>overdose</t>
+  </si>
+  <si>
+    <t>kioute</t>
+  </si>
+  <si>
+    <t>tounes</t>
+  </si>
+  <si>
+    <t>djôkeuse</t>
+  </si>
+  <si>
+    <t>superstar</t>
+  </si>
+  <si>
+    <t>blockbuster</t>
+  </si>
+  <si>
+    <t>fanfare</t>
+  </si>
+  <si>
+    <t>clip</t>
+  </si>
+  <si>
+    <t>city farm</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Disney Channel</t>
+  </si>
+  <si>
+    <t>tweeté</t>
+  </si>
+  <si>
+    <t>buzz</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>casting</t>
+  </si>
+  <si>
+    <t>sitcom</t>
+  </si>
+  <si>
+    <t>shérif</t>
+  </si>
+  <si>
+    <t>végétarienne</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>badass</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>palce</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>gluten-free</t>
+  </si>
+  <si>
+    <t>mix-tape</t>
+  </si>
+  <si>
+    <t>brunch</t>
+  </si>
+  <si>
+    <t>food truck</t>
+  </si>
+  <si>
+    <t>cocktail</t>
+  </si>
+  <si>
+    <t>barmen</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>coffee shop</t>
+  </si>
+  <si>
+    <t>acné</t>
+  </si>
+  <si>
+    <t>Roaccutane</t>
+  </si>
+  <si>
+    <t>Accutane</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Halloween</t>
+  </si>
+  <si>
+    <t>jogging</t>
+  </si>
+  <si>
+    <t>Special K</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>week-end</t>
+  </si>
+  <si>
+    <t>textos</t>
+  </si>
+  <si>
+    <t>playlist</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>sport/game</t>
+  </si>
+  <si>
+    <t>poker</t>
+  </si>
+  <si>
+    <t>t-shirt</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>Bop</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>stressé</t>
+  </si>
+  <si>
+    <t>flashbacks</t>
+  </si>
+  <si>
+    <t>community manager</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>playback</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>Mic drop</t>
+  </si>
+  <si>
+    <t>mic</t>
+  </si>
+  <si>
+    <t>Mentos</t>
+  </si>
+  <si>
+    <t>Coca Light</t>
+  </si>
+  <si>
+    <t>superglu</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>hockey</t>
+  </si>
+  <si>
+    <t>tennis</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>skypé</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>BYOB</t>
+  </si>
+  <si>
+    <t>Windows XP</t>
+  </si>
+  <si>
+    <t>Photoshop</t>
+  </si>
+  <si>
+    <t>interviewé</t>
+  </si>
+  <si>
+    <t>serial killer</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>festival</t>
+  </si>
+  <si>
+    <t>manterrupting</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>dinosaur</t>
+  </si>
+  <si>
+    <t>BFF</t>
+  </si>
+  <si>
+    <t>shorts</t>
+  </si>
+  <si>
+    <t>mini-short</t>
+  </si>
+  <si>
+    <t>UNIX</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>cockpit</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>soda</t>
+  </si>
+  <si>
+    <t>médias</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>tatoué</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>skinny</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>coaches</t>
+  </si>
+  <si>
+    <t>stocker</t>
+  </si>
+  <si>
+    <t>touriste</t>
+  </si>
+  <si>
+    <t>blogueuse</t>
+  </si>
+  <si>
+    <t>sportifs</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>bol</t>
+  </si>
+  <si>
+    <t>fairy bread</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>kik</t>
+  </si>
+  <si>
+    <t>live-tweeté</t>
+  </si>
+  <si>
+    <t>retweetée</t>
+  </si>
+  <si>
+    <t>Ask.fm</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>hashtag</t>
+  </si>
+  <si>
+    <t>followers</t>
+  </si>
+  <si>
+    <t>roadtrip</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>surfeur</t>
+  </si>
+  <si>
+    <t>studio</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>pop-art</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>Niiice</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>for real</t>
+  </si>
+  <si>
+    <t>rock &amp; roll</t>
+  </si>
+  <si>
+    <t>shooting</t>
+  </si>
+  <si>
+    <t>hippie</t>
+  </si>
+  <si>
+    <t>tatoueur</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>spoilers</t>
+  </si>
+  <si>
+    <t>RIP</t>
+  </si>
+  <si>
+    <t>teasing</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>K.O</t>
+  </si>
+  <si>
+    <t>newsletter</t>
+  </si>
+  <si>
+    <t>bagel</t>
+  </si>
+  <si>
+    <t>cafétéria</t>
+  </si>
+  <si>
+    <t>Post-it</t>
+  </si>
+  <si>
+    <t>relooking</t>
+  </si>
+  <si>
+    <t>jungle</t>
+  </si>
+  <si>
+    <t>chewing-gum</t>
+  </si>
+  <si>
+    <t>Quidditch</t>
+  </si>
+  <si>
+    <t>geek</t>
+  </si>
+  <si>
+    <t>bullshit</t>
+  </si>
+  <si>
+    <t>spam</t>
+  </si>
+  <si>
+    <t>McDo</t>
+  </si>
+  <si>
+    <t>Zipper</t>
+  </si>
+  <si>
+    <t>dézipper</t>
+  </si>
+  <si>
+    <t>Jell-O</t>
+  </si>
+  <si>
+    <t>Kool-Aid</t>
+  </si>
+  <si>
+    <t>scrapple</t>
+  </si>
+  <si>
+    <t>grits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep-fried </t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>chitterlings</t>
+  </si>
+  <si>
+    <t>Kraft Singles</t>
+  </si>
+  <si>
+    <t>sloppy joes</t>
+  </si>
+  <si>
+    <t>chicken-fried</t>
+  </si>
+  <si>
+    <t>Tater Tots</t>
+  </si>
+  <si>
+    <t>red-eye</t>
+  </si>
+  <si>
+    <t>gravy</t>
+  </si>
+  <si>
+    <t>gumbo</t>
+  </si>
+  <si>
+    <t>fry</t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
+    <t>Twinkies</t>
+  </si>
+  <si>
+    <t>burgoo</t>
+  </si>
+  <si>
+    <t>green beans</t>
+  </si>
+  <si>
+    <t>Peeps</t>
+  </si>
+  <si>
+    <t>donut</t>
+  </si>
+  <si>
+    <t>cornbread</t>
+  </si>
+  <si>
+    <t>Double Down</t>
+  </si>
+  <si>
+    <t>Say what</t>
+  </si>
+  <si>
+    <t>gang</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>selfie-stick</t>
+  </si>
+  <si>
+    <t>icône</t>
+  </si>
+  <si>
+    <t>bluetooth</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>time lapse</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Afterlight</t>
+  </si>
+  <si>
+    <t>VSCO</t>
+  </si>
+  <si>
+    <t>Facetune</t>
+  </si>
+  <si>
+    <t>Darkroom</t>
+  </si>
+  <si>
+    <t>Be Funky</t>
+  </si>
+  <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>Airbus</t>
   </si>
 </sst>
 </file>
@@ -275,8 +986,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -298,17 +1017,25 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,24 +1365,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="13.1640625" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -687,13 +1416,34 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -725,13 +1475,34 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -741,6 +1512,9 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
@@ -750,6 +1524,9 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
       <c r="I3" t="s">
         <v>35</v>
       </c>
@@ -757,19 +1534,43 @@
         <v>50</v>
       </c>
       <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" t="s">
+        <v>282</v>
+      </c>
+      <c r="P3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -779,23 +1580,50 @@
       <c r="G4" t="s">
         <v>28</v>
       </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="K4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
@@ -805,64 +1633,763 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
       <c r="I5" t="s">
         <v>36</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" t="s">
+        <v>200</v>
+      </c>
+      <c r="R5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
       <c r="G6" t="s">
         <v>30</v>
       </c>
+      <c r="H6" t="s">
+        <v>137</v>
+      </c>
       <c r="I6" t="s">
         <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" t="s">
+        <v>178</v>
+      </c>
+      <c r="N6" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" t="s">
+        <v>220</v>
+      </c>
+      <c r="R6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>153</v>
+      </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
+      <c r="H7" t="s">
+        <v>170</v>
+      </c>
       <c r="I7" t="s">
         <v>38</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" t="s">
+        <v>229</v>
+      </c>
+      <c r="R7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>234</v>
+      </c>
+      <c r="N8" t="s">
+        <v>248</v>
+      </c>
+      <c r="P8" t="s">
+        <v>232</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
       <c r="G9" t="s">
         <v>61</v>
       </c>
+      <c r="H9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
       <c r="J9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="s">
+        <v>240</v>
+      </c>
+      <c r="P9" t="s">
+        <v>241</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
       <c r="J10" t="s">
         <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>279</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="S14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" t="s">
+        <v>297</v>
+      </c>
+      <c r="G19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" t="s">
+        <v>117</v>
+      </c>
+      <c r="S19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" t="s">
+        <v>298</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+      <c r="S20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="S22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19">
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="s">
+        <v>154</v>
+      </c>
+      <c r="S23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>160</v>
+      </c>
+      <c r="S25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>161</v>
+      </c>
+      <c r="S26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="I27" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" t="s">
+        <v>175</v>
+      </c>
+      <c r="S27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="S28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>193</v>
+      </c>
+      <c r="S29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19">
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>208</v>
+      </c>
+      <c r="S30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19">
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="S31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="S32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="9:19">
+      <c r="I33" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="S33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="9:19">
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="S34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="9:19">
+      <c r="J35" t="s">
+        <v>258</v>
+      </c>
+      <c r="S35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="9:19">
+      <c r="J36" t="s">
+        <v>260</v>
+      </c>
+      <c r="S36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="9:19">
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="S37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="9:19">
+      <c r="J38" t="s">
+        <v>262</v>
+      </c>
+      <c r="S38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="9:19">
+      <c r="J39" t="s">
+        <v>263</v>
+      </c>
+      <c r="S39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="9:19">
+      <c r="J40" t="s">
+        <v>264</v>
+      </c>
+      <c r="S40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="9:19">
+      <c r="J41" t="s">
+        <v>265</v>
+      </c>
+      <c r="S41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="9:19">
+      <c r="J42" t="s">
+        <v>266</v>
+      </c>
+      <c r="S42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="9:19">
+      <c r="J43" t="s">
+        <v>267</v>
+      </c>
+      <c r="S43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="9:19">
+      <c r="J44" t="s">
+        <v>269</v>
+      </c>
+      <c r="S44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="9:19">
+      <c r="J45" t="s">
+        <v>270</v>
+      </c>
+      <c r="S45" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="9:19">
+      <c r="J46" t="s">
+        <v>272</v>
+      </c>
+      <c r="S46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="9:19">
+      <c r="J47" t="s">
+        <v>273</v>
+      </c>
+      <c r="S47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="9:19">
+      <c r="J48" t="s">
+        <v>275</v>
+      </c>
+      <c r="S48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="10:19">
+      <c r="J49" t="s">
+        <v>276</v>
+      </c>
+      <c r="S49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="10:19">
+      <c r="J50" t="s">
+        <v>277</v>
+      </c>
+      <c r="S50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="10:19">
+      <c r="J51" t="s">
+        <v>278</v>
+      </c>
+      <c r="S51" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="10:19">
+      <c r="S52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="10:19">
+      <c r="S53" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="10:19">
+      <c r="S54" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data/semantic categories.xlsx
+++ b/data/semantic categories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/semantic categories.xlsx
+++ b/data/semantic categories.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>personal description</t>
   </si>
@@ -27,18 +27,12 @@
     <t>holiday</t>
   </si>
   <si>
-    <t>tech-based</t>
-  </si>
-  <si>
     <t>tech</t>
   </si>
   <si>
     <t>company</t>
   </si>
   <si>
-    <t>exclamation</t>
-  </si>
-  <si>
     <t>TV/movies/media</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>vitamine</t>
   </si>
   <si>
-    <t>unsure/need context</t>
-  </si>
-  <si>
     <t>toast</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>meeting</t>
   </si>
   <si>
-    <t>debfriefign</t>
-  </si>
-  <si>
     <t>script</t>
   </si>
   <si>
@@ -916,6 +904,18 @@
   </si>
   <si>
     <t>Airbus</t>
+  </si>
+  <si>
+    <t>tech-related</t>
+  </si>
+  <si>
+    <t>exclamation/abbreviations</t>
+  </si>
+  <si>
+    <t>debfriefing</t>
+  </si>
+  <si>
+    <t>misc</t>
   </si>
 </sst>
 </file>
@@ -936,13 +936,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,6 +961,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -986,38 +985,132 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1027,6 +1120,53 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1036,6 +1176,53 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1365,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1377,7 +1564,7 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="17" width="13.1640625" customWidth="1"/>
@@ -1386,1010 +1573,1009 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
         <v>116</v>
       </c>
-      <c r="O2" t="s">
-        <v>159</v>
-      </c>
-      <c r="P2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>120</v>
-      </c>
       <c r="O3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="S4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" t="s">
         <v>164</v>
       </c>
-      <c r="M5" t="s">
-        <v>168</v>
-      </c>
       <c r="N5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R5" t="s">
-        <v>125</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>56</v>
+        <v>121</v>
+      </c>
+      <c r="S5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>237</v>
-      </c>
-      <c r="L6" t="s">
-        <v>221</v>
-      </c>
-      <c r="M6" t="s">
-        <v>178</v>
-      </c>
-      <c r="N6" t="s">
-        <v>188</v>
-      </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>62</v>
+        <v>122</v>
+      </c>
+      <c r="S6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>172</v>
       </c>
       <c r="L7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R7" t="s">
-        <v>127</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>63</v>
+        <v>123</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>64</v>
+        <v>237</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:19">
+      <c r="A9" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="M9" t="s">
-        <v>240</v>
-      </c>
-      <c r="P9" t="s">
-        <v>241</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>72</v>
+        <v>236</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="B10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>144</v>
+        <v>201</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>279</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>76</v>
+        <v>275</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="C11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="3" t="s">
-        <v>165</v>
+      <c r="C12" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="C13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="M13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="3" t="s">
-        <v>182</v>
+      <c r="C14" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
-      </c>
-      <c r="S14" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="C15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="C16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>280</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
-      </c>
-      <c r="S17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
       <c r="C18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>285</v>
+        <v>281</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
-      </c>
-      <c r="S18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="3:10">
       <c r="C19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="G19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" t="s">
         <v>231</v>
       </c>
-      <c r="I19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J19" t="s">
-        <v>117</v>
-      </c>
-      <c r="S19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19">
-      <c r="C20" t="s">
-        <v>235</v>
+      <c r="E20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I20" t="s">
         <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
-      </c>
-      <c r="S20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
       <c r="C21" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="I21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
         <v>150</v>
       </c>
-      <c r="J21" t="s">
-        <v>121</v>
-      </c>
-      <c r="S21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19">
-      <c r="I22" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" t="s">
-        <v>132</v>
-      </c>
-      <c r="S22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19">
-      <c r="I23" t="s">
-        <v>173</v>
-      </c>
-      <c r="J23" t="s">
-        <v>154</v>
-      </c>
-      <c r="S23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19">
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I24" t="s">
         <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>155</v>
-      </c>
-      <c r="S24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="3:19">
+    <row r="25" spans="3:10">
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
-      </c>
-      <c r="S25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="3:19">
+    <row r="26" spans="3:10">
+      <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J26" t="s">
-        <v>161</v>
-      </c>
-      <c r="S26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19">
       <c r="I27" t="s">
         <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
-      </c>
-      <c r="S27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>190</v>
-      </c>
-      <c r="S28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="3:19">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>193</v>
-      </c>
-      <c r="S29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
-      </c>
-      <c r="S30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="3:19">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
       <c r="I31" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
-      </c>
-      <c r="S31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="3:19">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
       <c r="I32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
-      </c>
-      <c r="S32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="9:19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10">
       <c r="I33" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J33" t="s">
-        <v>249</v>
-      </c>
-      <c r="S33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="9:19">
-      <c r="I34" t="s">
-        <v>295</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="J34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10">
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10">
+      <c r="J37" t="s">
         <v>257</v>
       </c>
-      <c r="S34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="9:19">
-      <c r="J35" t="s">
+    </row>
+    <row r="38" spans="9:10">
+      <c r="J38" t="s">
         <v>258</v>
       </c>
-      <c r="S35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="9:19">
-      <c r="J36" t="s">
+    </row>
+    <row r="39" spans="9:10">
+      <c r="J39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10">
+      <c r="J40" t="s">
         <v>260</v>
       </c>
-      <c r="S36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="9:19">
-      <c r="J37" t="s">
+    </row>
+    <row r="41" spans="9:10">
+      <c r="J41" t="s">
         <v>261</v>
       </c>
-      <c r="S37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="9:19">
-      <c r="J38" t="s">
+    </row>
+    <row r="42" spans="9:10">
+      <c r="J42" t="s">
         <v>262</v>
       </c>
-      <c r="S38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="9:19">
-      <c r="J39" t="s">
+    </row>
+    <row r="43" spans="9:10">
+      <c r="J43" t="s">
         <v>263</v>
       </c>
-      <c r="S39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="9:19">
-      <c r="J40" t="s">
-        <v>264</v>
-      </c>
-      <c r="S40" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="9:19">
-      <c r="J41" t="s">
+    </row>
+    <row r="44" spans="9:10">
+      <c r="J44" t="s">
         <v>265</v>
       </c>
-      <c r="S41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="9:19">
-      <c r="J42" t="s">
+    </row>
+    <row r="45" spans="9:10">
+      <c r="J45" t="s">
         <v>266</v>
       </c>
-      <c r="S42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="9:19">
-      <c r="J43" t="s">
+    </row>
+    <row r="46" spans="9:10">
+      <c r="J46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10">
+      <c r="J47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10">
+      <c r="J48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="S43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="9:19">
-      <c r="J44" t="s">
-        <v>269</v>
-      </c>
-      <c r="S44" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="9:19">
-      <c r="J45" t="s">
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="S45" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="9:19">
-      <c r="J46" t="s">
-        <v>272</v>
-      </c>
-      <c r="S46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="9:19">
-      <c r="J47" t="s">
-        <v>273</v>
-      </c>
-      <c r="S47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="9:19">
-      <c r="J48" t="s">
-        <v>275</v>
-      </c>
-      <c r="S48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="10:19">
-      <c r="J49" t="s">
-        <v>276</v>
-      </c>
-      <c r="S49" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="10:19">
-      <c r="J50" t="s">
-        <v>277</v>
-      </c>
-      <c r="S50" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="10:19">
-      <c r="J51" t="s">
-        <v>278</v>
-      </c>
-      <c r="S51" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="10:19">
-      <c r="S52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="10:19">
-      <c r="S53" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="10:19">
-      <c r="S54" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data/semantic categories.xlsx
+++ b/data/semantic categories.xlsx
@@ -985,8 +985,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1110,7 +1142,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1167,6 +1199,22 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1223,6 +1271,22 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1554,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
